--- a/biyesheji/code/release/cases_data/data/udr/s_udr0011.xlsx
+++ b/biyesheji/code/release/cases_data/data/udr/s_udr0011.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="61">
   <si>
     <t>001101</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,30 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001101</t>
   </si>
   <si>
@@ -144,34 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,27 +131,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>001103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,348 +639,348 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
@@ -949,138 +989,138 @@
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
@@ -1089,362 +1129,362 @@
         <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>27</v>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
@@ -1453,175 +1493,77 @@
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1571,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:C3 A1:C1 A2:C2 A4:C4 A10 A7:C7 A8:C8 A9:C9 A14:D14 A11:C11 A12:C12 A13:C13 A21:C21 A15:C15 A16:C16 A17:C17 A18:C18 A19:C19 A20:C20 A5:C5 A6:C6 C10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
